--- a/biology/Zoologie/Craniata_(Chordata)/Craniata_(Chordata).xlsx
+++ b/biology/Zoologie/Craniata_(Chordata)/Craniata_(Chordata).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Craniata (craniés ou craniates en français) sont un clade des chordés possédant un crâne cartilagineux ou osseux protégeant la partie antérieure du système nerveux. Ce groupe est censé regrouper les myxines et les vertébrés, et être le groupe frère des tuniciers parmi les olfactoriens. Cependant, des études ont montré que les Lamproies, bien qu'étant des vertébrés, sont plus proches des myxines que des gnathostomes (vertébrés à mâchoires), et que les myxines sont des vertébrés qui ont perdu leurs caractères ancestraux[1],[2], ce qui fait de ce taxon, un synonyme de Vertebrata.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Craniata (craniés ou craniates en français) sont un clade des chordés possédant un crâne cartilagineux ou osseux protégeant la partie antérieure du système nerveux. Ce groupe est censé regrouper les myxines et les vertébrés, et être le groupe frère des tuniciers parmi les olfactoriens. Cependant, des études ont montré que les Lamproies, bien qu'étant des vertébrés, sont plus proches des myxines que des gnathostomes (vertébrés à mâchoires), et que les myxines sont des vertébrés qui ont perdu leurs caractères ancestraux ce qui fait de ce taxon, un synonyme de Vertebrata.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le clade des Craniata est attribué, en 1877, au zoologiste britannique Edwin Ray Lankester (1847-1929).
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les craniés se caractérisent par :
 des plaques dentigères chez les myxinoïdes ou une mâchoire chez les gnathostomes ;
